--- a/test-data.xlsx
+++ b/test-data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t xml:space="preserve">flow</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">test.Signup</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">signup</t>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">test.Logout</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHECKOUT_01</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
     <t xml:space="preserve">munch</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">downtown</t>
   </si>
   <si>
@@ -110,22 +110,10 @@
     <t xml:space="preserve">CHECKOUT_02</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that user is able to checkout with new address and cash payment</t>
+    <t xml:space="preserve">Verify that user is able to checkout with saved address and cash payment</t>
   </si>
   <si>
     <t xml:space="preserve">cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHECKOUT_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user is able to checkout with saved address and card payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHECKOUT_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user is able to checkout with saved address and cash payment</t>
   </si>
   <si>
     <t xml:space="preserve">CART_01</t>
@@ -728,10 +716,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE1003"/>
+  <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -739,7 +727,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="36.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="19.43"/>
@@ -896,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>17</v>
@@ -930,13 +918,13 @@
     </row>
     <row r="5" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>12</v>
@@ -945,10 +933,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>26</v>
@@ -987,7 +975,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>12</v>
@@ -996,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>12</v>
@@ -1030,7 +1018,7 @@
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
@@ -1038,25 +1026,25 @@
         <v>32</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
@@ -1083,32 +1071,22 @@
     </row>
     <row r="8" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -1132,34 +1110,16 @@
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>30</v>
-      </c>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -1183,24 +1143,16 @@
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="10"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1225,16 +1177,16 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="6"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1267,7 +1219,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -33927,87 +33879,23 @@
       <c r="AD1001" s="7"/>
       <c r="AE1001" s="7"/>
     </row>
-    <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="17"/>
-      <c r="B1002" s="7"/>
-      <c r="C1002" s="7"/>
-      <c r="D1002" s="7"/>
-      <c r="E1002" s="7"/>
-      <c r="F1002" s="7"/>
-      <c r="G1002" s="7"/>
-      <c r="H1002" s="7"/>
-      <c r="I1002" s="7"/>
-      <c r="J1002" s="7"/>
-      <c r="K1002" s="7"/>
-      <c r="L1002" s="7"/>
-      <c r="M1002" s="7"/>
-      <c r="N1002" s="7"/>
-      <c r="O1002" s="7"/>
-      <c r="P1002" s="7"/>
-      <c r="Q1002" s="7"/>
-      <c r="R1002" s="7"/>
-      <c r="S1002" s="7"/>
-      <c r="T1002" s="7"/>
-      <c r="U1002" s="7"/>
-      <c r="V1002" s="7"/>
-      <c r="W1002" s="7"/>
-      <c r="X1002" s="7"/>
-      <c r="Y1002" s="7"/>
-      <c r="Z1002" s="7"/>
-      <c r="AA1002" s="7"/>
-      <c r="AB1002" s="7"/>
-      <c r="AC1002" s="7"/>
-      <c r="AD1002" s="7"/>
-      <c r="AE1002" s="7"/>
-    </row>
-    <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="17"/>
-      <c r="B1003" s="7"/>
-      <c r="C1003" s="7"/>
-      <c r="D1003" s="7"/>
-      <c r="E1003" s="7"/>
-      <c r="F1003" s="7"/>
-      <c r="G1003" s="7"/>
-      <c r="H1003" s="7"/>
-      <c r="I1003" s="7"/>
-      <c r="J1003" s="7"/>
-      <c r="K1003" s="7"/>
-      <c r="L1003" s="7"/>
-      <c r="M1003" s="7"/>
-      <c r="N1003" s="7"/>
-      <c r="O1003" s="7"/>
-      <c r="P1003" s="7"/>
-      <c r="Q1003" s="7"/>
-      <c r="R1003" s="7"/>
-      <c r="S1003" s="7"/>
-      <c r="T1003" s="7"/>
-      <c r="U1003" s="7"/>
-      <c r="V1003" s="7"/>
-      <c r="W1003" s="7"/>
-      <c r="X1003" s="7"/>
-      <c r="Y1003" s="7"/>
-      <c r="Z1003" s="7"/>
-      <c r="AA1003" s="7"/>
-      <c r="AB1003" s="7"/>
-      <c r="AC1003" s="7"/>
-      <c r="AD1003" s="7"/>
-      <c r="AE1003" s="7"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" prompt="Accepts only &quot;yes&quot; or &quot;no&quot; or remains empty" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="G2:G11" type="list">
+    <dataValidation allowBlank="true" operator="between" prompt="Accepts only &quot;yes&quot; or &quot;no&quot; or remains empty" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="G2:G9" type="list">
       <formula1>",yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Accepts only &quot;yes&quot; or &quot;no&quot;" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="D2:D11" type="list">
+    <dataValidation allowBlank="true" operator="between" prompt="Accepts only &quot;yes&quot; or &quot;no&quot;" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="D2:D9" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Accepts only &quot;login&quot; or &quot;signup&quot; or remains empty" showDropDown="true" showErrorMessage="false" showInputMessage="true" sqref="E2:E11" type="list">
+    <dataValidation allowBlank="true" operator="between" prompt="Accepts only &quot;login&quot; or &quot;signup&quot; or remains empty" showDropDown="true" showErrorMessage="false" showInputMessage="true" sqref="E2:E9" type="list">
       <formula1>",login,signup"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Accepts only &quot;cash&quot; or &quot;card&quot; or remains empty" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="I2:I11" type="list">
+    <dataValidation allowBlank="true" operator="between" prompt="Accepts only &quot;cash&quot; or &quot;card&quot; or remains empty" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="I2:I9" type="list">
       <formula1>",cash,card"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -34030,7 +33918,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34048,87 +33936,87 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="18"/>
       <c r="D1" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="19"/>
       <c r="G1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+      <c r="G2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="H2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="21" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="B3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="E3" s="22" t="n">
         <v>12</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4" s="22" t="n">
         <v>21</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E5" s="30" t="n">
         <v>123</v>
@@ -34136,7 +34024,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" s="32" t="n">
         <v>4242424</v>
@@ -34166,10 +34054,10 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
@@ -34184,7 +34072,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
